--- a/整合結果/中時/excel_by_week/2025_W25.xlsx
+++ b/整合結果/中時/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>量縮價不墜 預售市場自用買盤當道 - 財經要聞</t>
+          <t>魏哲家親口說了！「1產品」訂單火爆 預告半導體下一波新引擎 - 財經</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000208-260202</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616000005-260410</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>避險潮湧 黃金、ETF礦業股有戲 - 投資理財</t>
+          <t>台積電掀貼息潮？長榮豪發32.5元股民該參加嗎 專家這樣建議 - 財經</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000341-260208</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616000006-260410</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>連接元件廠 庫藏股執行率超高 - 證券．權證</t>
+          <t>人形機器人「大黑馬」飆上700元！謝金河揭首季EPS 7.6驚艷 最猛還沒來 - 財經</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000259-260206</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616000004-260410</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>輝達美製新晶片 台積先進封裝助攻 - 財經要聞</t>
+          <t>高息＋科技題材 攻守兼備 - 投資理財</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000108-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000339-260208</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>跟進美國 台灣列管華為、中芯 - 財經要聞</t>
+          <t>高價三劍客 迎評價修復行情 - 財經要聞</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000118-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000136-260202</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>超級央行周台股深呼吸 - 財經要聞</t>
+          <t>馬王會 促兩岸深化合作 - 全球財經</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000099-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000184-260203</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>超秦6月18日登興櫃 AI智農驅動成長 - 投資理財</t>
+          <t>題材多元 東協基金錢景亮 - 投資理財</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000310-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000337-260208</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>資安院三方向推產品資安 - 財經要聞</t>
+          <t>領多頭行情 AI、機器人 科技投資主旋律 - 投資理財</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000134-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000335-260208</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>董事長張子雄領軍 胡連轉骨 迎營運爆發期 - 財經要聞</t>
+          <t>青青婚宴文創集團董事長 吳永強的不敗精神 大膽翻轉婚宴市場 - 企業經營</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000138-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000215-260207</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>華為、中芯 列戰略性出口管制 - 財經焦點</t>
+          <t>雙鴻AI伺服器衝鋒 H2動能強 - 證券．權證</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000425-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000233-260206</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>花旗辦二論壇 聚焦AI、半導體 - 金融．稅務</t>
+          <t>隱眼雙雄 深耕矽水膠商機 - 證券．權證</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000198-260205</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000250-260206</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>自費診所 不孕治療補助、抵稅範圍擬調整 - 財經焦點</t>
+          <t>阿聯打造中東矽谷 - 專題周報</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000430-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000361-260209</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>自行車業闢藍海 攻泰、星、日 - 財經要聞</t>
+          <t>量縮價不墜 預售市場自用買盤當道 - 財經要聞</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000200-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000208-260202</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>美耶魯女聲合唱團 中山商圈獻唱 - 產業．科技</t>
+          <t>疫苗國家隊自研技術！冷凍小廠出奇招 敲門國際盃 - 財經</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000308-260204</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616000002-260410</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>美依賴中國製造商品 - 專題周報</t>
+          <t>避險潮湧 黃金、ETF礦業股有戲 - 投資理財</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000371-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000341-260208</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>綠電交易夯 售電業掀IPO熱潮 - 證券．權證</t>
+          <t>輝達美製新晶片 台積先進封裝助攻 - 財經要聞</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000253-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000108-260202</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>米荒衝擊造酒文化 - 專題周報</t>
+          <t>跟進美國 台灣列管華為、中芯 - 財經要聞</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000367-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000118-260202</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>第一金人壽：三先 打造新鮮人高CP值防護網 - 全球財經</t>
+          <t>超級央行周台股深呼吸 - 財經要聞</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000355-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000099-260202</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>競爭白熱化 電商擴大版圖 各祭新策 - 產業特刊</t>
+          <t>超秦6月18日登興櫃 AI智農驅動成長 - 投資理財</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000164-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000310-260208</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>稀土談不攏 美擬延對中關稅暫停 - 財經要聞</t>
+          <t>資安院三方向推產品資安 - 財經要聞</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000115-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000134-260202</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>福壽實業 獲IECQ ISO 14067認證 - 投資理財</t>
+          <t>董事長張子雄領軍 胡連轉骨 迎營運爆發期 - 財經要聞</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000312-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000138-260202</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>百度拚AI 大舉招聘頂尖人才 - 全球財經</t>
+          <t>華為、中芯 列戰略性出口管制 - 財經焦點</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000179-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000425-260110</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>玻陶廠 瞄準AI、軍工新藍海 - 證券．權證</t>
+          <t>花旗辦二論壇 聚焦AI、半導體 - 金融．稅務</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000262-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000198-260205</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>波音下調新飛機需求預測 - 全球財經</t>
+          <t>自費診所 不孕治療補助、抵稅範圍擬調整 - 財經焦點</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000173-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000430-260110</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>泡麵商機香 前五月銷量續增 - 財經要聞</t>
+          <t>自行車業闢藍海 攻泰、星、日 - 財經要聞</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000204-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000200-260202</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>阿聯打造中東矽谷 - 專題周報</t>
+          <t>美耶魯女聲合唱團 中山商圈獻唱 - 產業．科技</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000361-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000308-260204</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>隱眼雙雄 深耕矽水膠商機 - 證券．權證</t>
+          <t>美依賴中國製造商品 - 專題周報</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000250-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000371-260209</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>雙鴻AI伺服器衝鋒 H2動能強 - 證券．權證</t>
+          <t>綠電交易夯 售電業掀IPO熱潮 - 證券．權證</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000233-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000253-260206</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>能源危機爆發？專家最新警告很危險 完整看法曝光 - 財經</t>
+          <t>連接元件廠 庫藏股執行率超高 - 證券．權證</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001810-260410</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000259-260206</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>秒填息新明燈 散熱廠雙鴻填息率衝190％ - 財經</t>
+          <t>2大產業暫緩結單恐「做三休四」 匯率衝擊大過關稅 - 財經</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001809-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250615003365-260410</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>華為、中芯納入經部黑名單 台股20檔「受害股」表現曝光 - 財經</t>
+          <t>1分鐘讀財經》房市資金大緊縮！這家公股銀房貸轉貸案暴減90％ - 財經</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001743-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001183-260410</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>最後上車日！00919明除息「年化配息率12.8％」15檔殖利率大公開 - 財經</t>
+          <t>台積電續跌10元至1020 台股早盤挫低超過130點 失守22K關卡</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001645-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001247-260410</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>南科營收大爆發！成長率高達58.60％ 最關鍵原因曝光 - 財經</t>
+          <t>AI技術衝擊翻譯工作 資深譯者轉戰半導體製程工程師 - 財經</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001706-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002648-260410</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>瞄準南台灣市場 南陽擴展HYUNDAI汽車東台南據點 - 財經</t>
+          <t>台股險守22K！回測風險未消失 3大題材有空間 - 財經</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001736-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002699-260410</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>凱基證攜手櫃買中心 赴港拓展台資企業國際能見度 - 財經</t>
+          <t>新保聯手永豐銀 導入ATM區臉部辨識門禁 - 財經</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001710-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002643-260410</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>新台幣快升破29.5元 出口商崩潰影響股市？專家：跟外界想的不同 - 財經</t>
+          <t>國泰旗下精品酒店 慕軒飯店加入萬豪集團 - 財經</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001721-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002580-260410</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>「遲來的正義不是正義」！耐斯阻國票金併購擴張淪最小金控 - 財經</t>
+          <t>用寫作扎根誠實信念 永慶誠實徵文比賽逾1800位高雄學生參與 - 財經</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616000801-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002561-260410</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>經濟部祭華為、中芯禁令影響大？ 業界曝真相 - 財經</t>
+          <t>中華電衝137元歷史新高 1原因推升股價上漲 - 財經</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001604-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002503-260410</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>股市波動、關稅政策未明 信義房屋揭竹科房市現況 - 財經</t>
+          <t>小米新車YU7要來了 雷軍曝發布日期 - 財經</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001505-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002391-260410</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>華為5奈米快來了？外媒曝2大瓶頸卡關：今年恐難商業化 - 財經</t>
+          <t>美停止公布部分關鍵數據 大陸評估對科研影響 - 財經</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001421-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002345-260410</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>《金融》新青安貸不下來？！兩公股行庫發聲明澄清 - 財經</t>
+          <t>台股守住22K保衛戰 收盤小跌23點 台積電連跌3天未填息 - 財經</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001489-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002299-260410</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>美禁令又被攻破！陸「人肉快遞」爽用輝達晶片 內幕曝光 - 財經</t>
+          <t>以色列襲擊伊朗能源設施 國際油價續揚逾1％ - 財經</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001416-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002302-260410</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>台積電續跌10元至1020 台股早盤挫低超過130點 失守22K關卡</t>
+          <t>新光產險聲明：公司從未銷售債保契約 - 財經</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001247-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002303-260410</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1分鐘讀財經》房市資金大緊縮！這家公股銀房貸轉貸案暴減90％ - 財經</t>
+          <t>機電四雄看好電力市場需求 股價逆勢上漲 - 財經</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001183-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001879-260410</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2大產業暫緩結單恐「做三休四」 匯率衝擊大過關稅 - 財經</t>
+          <t>高雄地政局下周標售土地 高雄大學底價近8億受矚目 - 財經</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250615003365-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002075-260410</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>疫苗國家隊自研技術！冷凍小廠出奇招 敲門國際盃 - 財經</t>
+          <t>雷諾執行長將離職 日產計劃減持股票　 - 財經</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616000002-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002175-260410</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>魏哲家親口說了！「1產品」訂單火爆 預告半導體下一波新引擎 - 財經</t>
+          <t>台股一度殺破2萬2 法人提醒留意三大變數 - 財經</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616000005-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001844-260410</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>台積電掀貼息潮？長榮豪發32.5元股民該參加嗎 專家這樣建議 - 財經</t>
+          <t>金價飆漲快創新高 大咖銀行預測「這時候」飆上4000美元 - 財經</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616000006-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002096-260410</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>人形機器人「大黑馬」飆上700元！謝金河揭首季EPS 7.6驚艷 最猛還沒來 - 財經</t>
+          <t>41年老牌大廠提前下市！董事長突請辭 過往黑歷史起底 - 財經</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616000004-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001980-260410</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>高息＋科技題材 攻守兼備 - 投資理財</t>
+          <t>美禁令又被攻破！陸「人肉快遞」爽用輝達晶片 內幕曝光 - 財經</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000339-260208</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001416-260410</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>高價三劍客 迎評價修復行情 - 財經要聞</t>
+          <t>《金融》新青安貸不下來？！兩公股行庫發聲明澄清 - 財經</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000136-260202</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001489-260410</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>馬王會 促兩岸深化合作 - 全球財經</t>
+          <t>華為5奈米快來了？外媒曝2大瓶頸卡關：今年恐難商業化 - 財經</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000184-260203</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001421-260410</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>題材多元 東協基金錢景亮 - 投資理財</t>
+          <t>股市波動、關稅政策未明 信義房屋揭竹科房市現況 - 財經</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000337-260208</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001505-260410</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>領多頭行情 AI、機器人 科技投資主旋律 - 投資理財</t>
+          <t>經濟部祭華為、中芯禁令影響大？ 業界曝真相 - 財經</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000335-260208</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001604-260410</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>青青婚宴文創集團董事長 吳永強的不敗精神 大膽翻轉婚宴市場 - 企業經營</t>
+          <t>「遲來的正義不是正義」！耐斯阻國票金併購擴張淪最小金控 - 財經</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000215-260207</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616000801-260410</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>法人：油價進入高波動新常態 - 投資理財</t>
+          <t>米荒衝擊造酒文化 - 專題周報</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000344-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000367-260209</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>41年老牌大廠提前下市！董事長突請辭 過往黑歷史起底 - 財經</t>
+          <t>新台幣快升破29.5元 出口商崩潰影響股市？專家：跟外界想的不同 - 財經</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616001980-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001721-260410</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>油價拉警報 伊朗嗆封鎖荷姆茲海峽 - 財經要聞</t>
+          <t>瞄準南台灣市場 南陽擴展HYUNDAI汽車東台南據點 - 財經</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000121-260202</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001736-260410</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>權證市場焦點－雙鴻 水冷商機爆發 - 證券．權證</t>
+          <t>南科營收大爆發！成長率高達58.60％ 最關鍵原因曝光 - 財經</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000298-260206</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001706-260410</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>出口強勁 外銀樂看台灣經濟 - 金融．稅務</t>
+          <t>最後上車日！00919明除息「年化配息率12.8％」15檔殖利率大公開 - 財經</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000190-260205</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001645-260410</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>公股銀 今年房貸轉貸降溫 - 金融．稅務</t>
+          <t>華為、中芯納入經部黑名單 台股20檔「受害股」表現曝光 - 財經</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000187-260205</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001743-260410</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>全職兒子變夢幻工作 - 專題周報</t>
+          <t>秒填息新明燈 散熱廠雙鴻填息率衝190％ - 財經</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000359-260209</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001809-260410</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>全球人壽×台鋼雄鷹 辦親子主題日 - 產業特刊</t>
+          <t>能源危機爆發？專家最新警告很危險 完整看法曝光 - 財經</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000323-260210</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001810-260410</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>作帳行情 投顧點名9檔個股 - 產業特刊</t>
+          <t>凱基證攜手櫃買中心 赴港拓展台資企業國際能見度 - 財經</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000277-260210</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616001710-260410</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>以伊開戰 美俄講話 - 財經要聞</t>
+          <t>第一金人壽：三先 打造新鮮人高CP值防護網 - 全球財經</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000105-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000355-260203</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>以伊戰事 打亂超級央行周步調 - 財經焦點</t>
+          <t>競爭白熱化 電商擴大版圖 各祭新策 - 產業特刊</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000423-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000164-260210</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>亞馬遜、沃爾瑪 研擬發行穩定幣 - 全球財經</t>
+          <t>稀土談不攏 美擬延對中關稅暫停 - 財經要聞</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000176-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000115-260202</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>亞馬遜 大手筆在澳建資料中心 - 財經要聞</t>
+          <t>國發基金砸千億 助攻AI新十大建設 - 財經要聞</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000129-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000127-260202</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>五大高息ETF績效 勝台股主動基金 - 投資理財</t>
+          <t>國泰金贊助 美國大都會博物館首來台 - 財經焦點</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000333-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000427-260110</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>中美貿易戰和緩、AI商機爆發 美股ETF彈力強 後市看漲 - 投資理財</t>
+          <t>國泰金 贊助大都會博物館巡展 - 金融．稅務</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000330-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000196-260205</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>世界健身攜手Flag 擴大巴西布局 - 證券．權證</t>
+          <t>吳永強熱中美食外交 培育新血不遺餘力 - 企業經營</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000271-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000218-260207</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>「朴槿惠男孩」選總統 - 專題周報</t>
+          <t>出口強勁 外銀樂看台灣經濟 - 金融．稅務</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000369-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000190-260205</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>OBU撐場 境外金融中心翻倍賺 - 財經要聞</t>
+          <t>公股銀 今年房貸轉貸降溫 - 金融．稅務</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000150-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000187-260205</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GB200需求熱 健策、川湖權證香 - 證券．權證</t>
+          <t>全職兒子變夢幻工作 - 專題周報</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000289-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000359-260209</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>G7峰會登場 經貿、戰火上桌 - 財經要聞</t>
+          <t>全球人壽×台鋼雄鷹 辦親子主題日 - 產業特刊</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000112-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000323-260210</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CDMO接單穩增 長聖今年EPS上看6元 - 證券．權證</t>
+          <t>作帳行情 投顧點名9檔個股 - 產業特刊</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000236-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000277-260210</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ASIC助攻 台光電台燿威風 - 證券．權證</t>
+          <t>以伊開戰 美俄講話 - 財經要聞</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000292-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000105-260202</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AI伺服器夯 富世達、技嘉衝鋒 - 證券．權證</t>
+          <t>以伊戰事 打亂超級央行周步調 - 財經焦點</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000286-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000423-260110</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AFMA 打造華人頂級金融人才 - 產業特刊</t>
+          <t>亞馬遜、沃爾瑪 研擬發行穩定幣 - 全球財經</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000221-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000176-260203</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7A Drones拓台灣低空新商機 - 財經要聞</t>
+          <t>亞馬遜 大手筆在澳建資料中心 - 財經要聞</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000211-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000129-260202</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5檔高息ETF 今年來績效翻正 - 證券．權證</t>
+          <t>五大高息ETF績效 勝台股主動基金 - 投資理財</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000244-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000333-260208</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>19家庫藏股優等生 出列 - 產業特刊</t>
+          <t>中美貿易戰和緩、AI商機爆發 美股ETF彈力強 後市看漲 - 投資理財</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000275-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000330-260208</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16檔季底作帳 內外資追捧 - 證券．權證</t>
+          <t>世界健身攜手Flag 擴大巴西布局 - 證券．權證</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000238-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000271-260206</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TOT商盟引領企業傳承與品牌升級 - 產業．科技</t>
+          <t>16檔季底作帳 內外資追捧 - 證券．權證</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000304-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000238-260206</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>吳永強熱中美食外交 培育新血不遺餘力 - 企業經營</t>
+          <t>19家庫藏股優等生 出列 - 產業特刊</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000218-260207</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000275-260210</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>國泰金 贊助大都會博物館巡展 - 金融．稅務</t>
+          <t>5檔高息ETF 今年來績效翻正 - 證券．權證</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000196-260205</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000244-260206</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>國泰金贊助 美國大都會博物館首來台 - 財經焦點</t>
+          <t>7A Drones拓台灣低空新商機 - 財經要聞</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000427-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000211-260202</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>權證市場焦點－緯創 訂單需求強勁 - 證券．權證</t>
+          <t>AFMA 打造華人頂級金融人才 - 產業特刊</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000295-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000221-260210</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>本報調查》逾九成金融業 押注央行利率連五凍 - 財經要聞</t>
+          <t>外幣存款 公股銀列今年發展重點 - 金融．稅務</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000102-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000194-260205</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>星級旅館拚觀光 產官共商四方向 - 產業．科技</t>
+          <t>AI伺服器夯 富世達、技嘉衝鋒 - 證券．權證</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000306-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000286-260206</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>昇達科訂單維持高檔 H2動能升 - 證券．權證</t>
+          <t>CDMO接單穩增 長聖今年EPS上看6元 - 證券．權證</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000255-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000236-260206</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>斷鏈的數據 - 專題周報</t>
+          <t>G7峰會登場 經貿、戰火上桌 - 財經要聞</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000374-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000112-260202</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>新台幣Q3走向 金融業升浪大 - 財經要聞</t>
+          <t>GB200需求熱 健策、川湖權證香 - 證券．權證</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000147-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000289-260206</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>新北、台中 明年舉債空間增24億 - 財經焦點</t>
+          <t>OBU撐場 境外金融中心翻倍賺 - 財經要聞</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000432-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000150-260202</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>新世代最青－先買後付 年輕人消費新潮流 - 產業特刊</t>
+          <t>TOT商盟引領企業傳承與品牌升級 - 產業．科技</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000167-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000304-260204</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>新世代最青－BNPL爭議多 金管會祭金保法拆彈 - 產業特刊</t>
+          <t>「朴槿惠男孩」選總統 - 專題周報</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000169-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000369-260209</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>搶攻鐵粉經濟！餐飲平台升級APP 擴大圈粉 - 產業特刊</t>
+          <t>ASIC助攻 台光電台燿威風 - 證券．權證</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000160-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000292-260206</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>打造護國群山 矽光子進度快 - 財經要聞</t>
+          <t>大陸最強王牌被覬覦！死敵積極開發稀土資源 揭背後4大難題 - 財經</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000124-260202</t>
+          <t>https://www.chinatimes.com/realtimenews/20250616002709-260410</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>我對陸曝險續收斂 金融三業前四月年減逾15％ - 財經要聞</t>
+          <t>外資連十周加碼 日股有潛利 - 投資理財</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000156-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000327-260208</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>張子雄專訪》胡連2030年 營收挑戰10億美元 - 財經要聞</t>
+          <t>外銀：美債憂慮被誇大 - 財經要聞</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000141-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000152-260202</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>張子雄專訪》胡連2.0時代 老中青共治 接班團隊躍上檯面 - 財經要聞</t>
+          <t>福壽實業 獲IECQ ISO 14067認證 - 投資理財</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000144-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000312-260208</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>幣圈富豪難逃扳手攻擊 - 專題周報</t>
+          <t>百度拚AI 大舉招聘頂尖人才 - 全球財經</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000365-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000179-260203</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>巨生醫新藥 獲FDA同意加速取證 - 證券．權證</t>
+          <t>玻陶廠 瞄準AI、軍工新藍海 - 證券．權證</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000268-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000262-260206</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>川普閱兵 抗議活動遍地開花 - 全球財經</t>
+          <t>波音下調新飛機需求預測 - 全球財經</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000171-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000173-260203</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>富邦壽 分紅保單人氣旺 - 全球財經</t>
+          <t>泡麵商機香 前五月銷量續增 - 財經要聞</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000353-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000204-260202</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>安麗推追夢計畫 總獎金660萬 - 投資理財</t>
+          <t>法人：油價進入高波動新常態 - 投資理財</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000314-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000344-260208</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>大武山、超秦 多元布局搶市占 - 證券．權證</t>
+          <t>油價拉警報 伊朗嗆封鎖荷姆茲海峽 - 財經要聞</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000265-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000121-260202</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>大小金融期6／23啟動夜盤 - 產業特刊</t>
+          <t>殖利率吸睛 特別股中長期看好 - 投資理財</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000281-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000350-260208</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>多頭指標 14檔外資逢低鎖碼 - 證券．權證</t>
+          <t>權證市場焦點－雙鴻 水冷商機爆發 - 證券．權證</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000241-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000298-260206</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>外銀：美債憂慮被誇大 - 財經要聞</t>
+          <t>權證市場焦點－緯創 訂單需求強勁 - 證券．權證</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000152-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000295-260206</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>外銀青睞 歐洲資產前景佳 - 投資理財</t>
+          <t>本報調查》逾九成金融業 押注央行利率連五凍 - 財經要聞</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000347-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000102-260202</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>外資連十周加碼 日股有潛利 - 投資理財</t>
+          <t>星級旅館拚觀光 產官共商四方向 - 產業．科技</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000327-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000306-260204</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>外幣存款 公股銀列今年發展重點 - 金融．稅務</t>
+          <t>昇達科訂單維持高檔 H2動能升 - 證券．權證</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000194-260205</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000255-260206</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>國發基金砸千億 助攻AI新十大建設 - 財經要聞</t>
+          <t>斷鏈的數據 - 專題周報</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000127-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000374-260209</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>殖利率吸睛 特別股中長期看好 - 投資理財</t>
+          <t>新台幣Q3走向 金融業升浪大 - 財經要聞</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250616000350-260208</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000147-260202</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,301 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>金價飆漲快創新高 大咖銀行預測「這時候」飆上4000美元 - 財經</t>
+          <t>新北、台中 明年舉債空間增24億 - 財經焦點</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250616002096-260410</t>
+          <t>https://www.chinatimes.com/newspapers/20250616000432-260110</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>新世代最青－先買後付 年輕人消費新潮流 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000167-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>多頭指標 14檔外資逢低鎖碼 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000241-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>大小金融期6／23啟動夜盤 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000281-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>大武山、超秦 多元布局搶市占 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000265-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>安麗推追夢計畫 總獎金660萬 - 投資理財</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000314-260208</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>富邦壽 分紅保單人氣旺 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000353-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>川普閱兵 抗議活動遍地開花 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000171-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>外銀青睞 歐洲資產前景佳 - 投資理財</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000347-260208</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>巨生醫新藥 獲FDA同意加速取證 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000268-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>張子雄專訪》胡連2.0時代 老中青共治 接班團隊躍上檯面 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000144-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>張子雄專訪》胡連2030年 營收挑戰10億美元 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000141-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>我對陸曝險續收斂 金融三業前四月年減逾15％ - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000156-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>打造護國群山 矽光子進度快 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000124-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>搶攻鐵粉經濟！餐飲平台升級APP 擴大圈粉 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000160-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>新世代最青－BNPL爭議多 金管會祭金保法拆彈 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000169-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>幣圈富豪難逃扳手攻擊 - 專題周報</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250616000365-260209</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>第三季景氣陰雨來了！國泰憂「出口墜崖」 GDP維持2.8％ - 財經</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250616002961-260410</t>
         </is>
       </c>
     </row>
